--- a/INDIVIDUAL_ARGUMENTS/uniform_pro.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/uniform_pro.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>#id</t>
   </si>
@@ -29,208 +28,313 @@
     <t>I think it's good within certain limits. I went to a school with a uniform, and it was far less stressful than non-uniform college. I'd argue that it's a leveler- prevents people from showing off material wealth/ making others feel bad for not having 'cool' stuff.  But it can be taken too far. By the end, we weren't allowed coloured socks, which was idiotic.</t>
   </si>
   <si>
+    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg199079</t>
   </si>
   <si>
     <t>Wearing school uniform U can be sure that you go to school to study, not showing how fashionable you are</t>
   </si>
   <si>
+    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg198417</t>
   </si>
   <si>
     <t>According to the legacy educational resources, as fashion and trends change, students become more concerned with how they look and how they are perceived than they do with their academic success and achievement. The fashion of low rise jeans, bagging jeans, large trench coats, low cut shirts, and many others contribute to behavior problems and safety issues in the classrooms and in the hallways of schools today.</t>
   </si>
   <si>
+    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
+  </si>
+  <si>
     <t>arg580102</t>
   </si>
   <si>
     <t>This is very. Bad as the uniforms are also cost effective.</t>
   </si>
   <si>
+    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg207727</t>
   </si>
   <si>
     <t>Frankly, if kids didn't dress like whores and drug dealers all the time then it wouldn't be a problem, but since a lot of them do school districts have to turn to such a thing.  The argument of individuality...who cares? That's a load of bull. Is school the only place these kids go? What is stopping them from going home and putting on different clothes after school? And it isn't the schools job to make sure that every kid gets to "express their opinion." School is meant to be a learning environment, not a fashion show or a night club.</t>
   </si>
   <si>
+    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg201071</t>
   </si>
   <si>
     <t>I think school uniform is a good idea. Because there is the gap between the rich and poor, school uniform is efficient in many ways. If they wore to plain clothes every day, they concerned about clothes by brand and quantity of clothes. Teenager is sensible so the poor students can feel inferior. Although school uniform is very expensive , it is cheap better than plain clothes. Also they feel sense of kinship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
+    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+  </si>
+  <si>
     <t>arg580100</t>
   </si>
   <si>
     <t>it is good to follow to proper school code and the right to express emotions is right but not necessary as we have come school for learning.</t>
   </si>
   <si>
+    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg251981</t>
   </si>
   <si>
     <t>They prepare people for the clothes they may have to wear later on in life. They ensure that no unsuitable clothing is worn.</t>
   </si>
   <si>
+    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
+  </si>
+  <si>
     <t>arg205860</t>
   </si>
   <si>
     <t>Who in their right mind wants to get rid of Catholic school girl outfits?</t>
   </si>
   <si>
+    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg198325</t>
   </si>
   <si>
     <t>Student victimization is likely to be lowered and fights and gang activity should be decreased, as there is less competition in regard to wearing the most fashionable clothing.</t>
   </si>
   <si>
+    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg299409</t>
   </si>
   <si>
     <t>Means you don't have to worry about what you hve to wear!  Less awkward when people say wear school uniform and you wear mufti...</t>
   </si>
   <si>
+    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
+  </si>
+  <si>
     <t>arg198376</t>
   </si>
   <si>
     <t>That's really good idea. As i remember every morning i though what was better to wear? It was really problem, i spent quiet a lot of time. I asked my parents to buy new clothes for me, it was happened not rare. I know that not everyone thought as me, but it much better if the school has own uniform and everybody has to follow it. First it looks very good, smart. Secondly there is no envy that somebody have really nice skirt or jeans. Every pupil is the same and it would be easy to study, to not think about another things!!</t>
   </si>
   <si>
+    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
+  </si>
+  <si>
     <t>arg203922</t>
   </si>
   <si>
     <t>yes, i believe it's nice to have a school uniform. Each school 's uniform signifies its goal for instant i wore white shirt and blue skirt in my school days, white color is an indication of peace and blue of fidelity in relationships moreover identical uniform also removes the wall of status. it also depicts that whether a child comes from high or low class they all are treated equally under one roof .</t>
   </si>
   <si>
+    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
+  </si>
+  <si>
     <t>arg236393</t>
   </si>
   <si>
     <t>It is a good thing because this shows that the school and everyone else accepts each other no matter where they come from, who they are or what religion they are.</t>
   </si>
   <si>
+    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg205569</t>
   </si>
   <si>
     <t>School uniform is a great idea, just because it makes impossible to hold the race for the fashion among pupils. let it be, one pupil is richer than another. rich can begin to show off in front of those who are poorer. this action will create a negative atmosphere in the school and can start row between both pupils. As a rule, As a rule, it often occurs between the girls, although it is not rare between the boys. that's why school uniform liquidates all conflicts.</t>
   </si>
   <si>
+    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
+  </si>
+  <si>
     <t>arg208793</t>
   </si>
   <si>
     <t>I think that school uniform is a good idea. First it's make students look nice and tidy. Second we can know that who is study in which school or who is in a same school with us and finally it's convenient because we don't have to spend to much of time to choose clothes to school</t>
   </si>
   <si>
+    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg561672</t>
   </si>
   <si>
     <t>1. It makes everyone equal - if children can wear what they want some children will teased and feel less equal to their peers around them vs. uniforms  2. Okay Look school is for learning not how you look and dress but maybe in some levels it matters and most people that go to schools that don't have uniforms take like about 1 hr just to find their pants or shirt I mean really?? When you have a uniform it takes less than 10 min just to take it out and put it on and.</t>
   </si>
   <si>
+    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
+  </si>
+  <si>
     <t>arg198890</t>
   </si>
   <si>
     <t>year,i support this view. when i was studying in the school,for me wasn't a problem what to wear . In the university....i spend too much time in choosing clothes. firstly, it is wasting a time. secondly, when all students wear one uniform, there wouldn't be any discrimination, dividing into social status groups. A uniform shows students equality.</t>
   </si>
   <si>
+    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg199548</t>
   </si>
   <si>
     <t>i think school uniform is really good idea!Yes i agree that a lot of pupils don't like it, but however it have a lot of benefits. As previous people said children at first don't have to think about what to wear!because it is very big problem for teenagers.</t>
   </si>
   <si>
+    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg251866</t>
   </si>
   <si>
     <t>Uniforms allow an equal and fair social status only based on personality and not looks. I do half to admit wearing what you want is fun and creative but its only fun if everyone can do it and for some children thats not the case and they cant afford to live up to their peers standards so uniforms would make social life much easier and it would give a more mature look to the school.</t>
   </si>
   <si>
+    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg198256</t>
   </si>
   <si>
     <t>I believe that the school uniform is a good idea because school uniform improve student attendance and student doesn't spend a lot of time to choosing and buying clothes for school, espeacilly girls. That is why they can use more time to study.</t>
   </si>
   <si>
+    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg198802</t>
   </si>
   <si>
     <t>it is good idea... children should be equal, and do not compare clothes of each other... if they see something new from their classmates, they want to buy it, even it is not necessary...</t>
   </si>
   <si>
+    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg208794</t>
   </si>
   <si>
     <t>I think that school uniform is a good idea. First it's make students look nice and tidy. Second we can know that who is study in which school or who is in a same school with us and finally it's convenient because we don't have to spend to much of time to choose clothes to school.</t>
   </si>
   <si>
+    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg234411</t>
   </si>
   <si>
     <t>In a school all the students may not belong to the same financial status . Some may be rich , some may not be that rich . So uniform provides equal status to all the students so that there is no gap among them . If there is no uniform , then the rich students will wear new dresses everyday which the other students cannot afford and may lead to resentment among them .  Some insensitive children may also mock other students wear old cloths .  So I beleive that uniform is essential especially in developing countries .</t>
   </si>
   <si>
+    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+  </si>
+  <si>
     <t>arg252294</t>
   </si>
   <si>
     <t>Good idea for separate student from other people for at least increase garment job. Why we use soldier uniform? For separate from civil. Why terrorist not use soldier uniform? For harmonious with civil and easy to attack enemy.</t>
   </si>
   <si>
+    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
+  </si>
+  <si>
     <t>arg212151</t>
   </si>
   <si>
     <t>If you want your kids to wear uniforms, go to a school that allows that. But don't go crying to me that your kids are underachieving, easily-distracted, derelicts that can't focus their attention for 5 minutes in class.  Maybe I'm exaggerating.  But my message is clear. Uniforms are here to prevent problems that not wearing uniforms would cause.</t>
   </si>
   <si>
+    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
+  </si>
+  <si>
     <t>arg234631</t>
   </si>
   <si>
     <t>i think it's a good idea. so the student don't have to worry about what would they wear. they'll become more concentrate with their study so it's more efficient. if other says they can't express them self, oh please, there's so many things you can do to express yourself. and i think, uniform indirectly give thought how to dress correctly. if we let them dress theirself, they could wear Inappropriate clothes such as hot pants, rebel jeans or sexy clothes. that's not good for their mind.</t>
   </si>
   <si>
+    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg200033</t>
   </si>
   <si>
     <t>I believe that the wearing of the school uniform should be encouraged because it reminds each child that they are equal (at least in school). It also shows unity and children feel included and it helps them to work as a team.</t>
   </si>
   <si>
+    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg200133</t>
   </si>
   <si>
     <t>school uniform does no harm to students life emotions now as for the point of expressing oneself imagine one bully wearing shirt,tie,pant all neatly ironed and well polished shoes wont he look good.remember dressing sense also is a part of ur interveiw.</t>
   </si>
   <si>
+    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
+  </si>
+  <si>
     <t>arg198575</t>
   </si>
   <si>
     <t>i believe they are good! in this way all the girls out there would not tease each other about fashion issues and plus it makes all students look and feel equal which increases their attention on school work since they dont have to think if they are wearing the most expensive cloth is school or if they look the coolest and the prettiest and so..:D</t>
   </si>
   <si>
+    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
+  </si>
+  <si>
     <t>arg198711</t>
   </si>
   <si>
     <t>I actually believe that uniforms are good and in schools should be school uniforms. In this situation you don't have to constantly worry about what you're gonna wear every morning. And for it time you will be do any important thing which help to you in lessons. Yes, it might be a little boring putting on the same set of clothes but it's less costly this way, and you do not have to go on shopping trips so regularly.</t>
   </si>
   <si>
+    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg236207</t>
   </si>
   <si>
     <t>With uniforms there will be less of oh you dont wear this and you wear that. Then everyone is wearing the same thing and 1. it looks nicer 2. You dont have to spend forever trying to figure out what you are going to wear and 3. less drama, everyones wearing the same thing.</t>
   </si>
   <si>
+    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
+  </si>
+  <si>
     <t>arg660921</t>
   </si>
   <si>
     <t>yas,of course . School uniform is important  1.school uniform is a logos for our school  2.to remind us that we are part of the school  3.and if we use the uniform basically student used to think what are they gonna do to, is it positive or negative  4.in the morning we should use our uniform and if were not use our uniform the teacher give us a punishment and from that we can learn to be a discipline student  5.if we go out from the school than the teacher will see we used the school uniform so people will know that we from that school  thankyou.</t>
   </si>
   <si>
+    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg542561</t>
   </si>
   <si>
     <t>THE SCHOOL UNIFORM IS A VERY GOOOOOOOOOD IDEA , WHY ??  becouse the school uniform makes pupils concentrated on their education than on their clothes and I believe that school uniform instills discipline among pupils it makes pupils with diferent material statuses more equal :)</t>
   </si>
   <si>
+    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg203291</t>
   </si>
   <si>
     <t>I think that such a policy is a good idea. Uniforms make students equal on an economic level. This can be prevent envy and jealousy.</t>
+  </si>
+  <si>
+    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
   </si>
 </sst>
 </file>
@@ -238,40 +342,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -279,361 +387,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B36" activeCellId="0" pane="topLeft" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="132.117346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="132.117346938776"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
         <v>71</v>
       </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="36" ht="12.8" spans="1:3">
+      <c s="0" r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c s="0" r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/uniform_pro.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/uniform_pro.xlsx
@@ -28,7 +28,7 @@
     <t>I think it's good within certain limits. I went to a school with a uniform, and it was far less stressful than non-uniform college. I'd argue that it's a leveler- prevents people from showing off material wealth/ making others feel bad for not having 'cool' stuff.  But it can be taken too far. By the end, we weren't allowed coloured socks, which was idiotic.</t>
   </si>
   <si>
-    <t>360,0.2,11.72,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.35,0.3,0.0,0.0</t>
+    <t>12.8,5.63,1.12,1.57,0.71,0.2,11.72,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.16,0.16,0.22,0.06,0.06,0.08,0.0,0.0,0.0,0.0,7.22</t>
   </si>
   <si>
     <t>arg199079</t>
@@ -37,7 +37,7 @@
     <t>Wearing school uniform U can be sure that you go to school to study, not showing how fashionable you are</t>
   </si>
   <si>
-    <t>104,0.0,13.0,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.25,0.3,0.0,0.0</t>
+    <t>20.0,5.2,0.35,0.31,1.11,0.0,13.0,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.15,0.15,0.3,0.05,0.05,0.1,0.05,0.0,0.0,0.0,25.33</t>
   </si>
   <si>
     <t>arg198417</t>
@@ -46,7 +46,7 @@
     <t>According to the legacy educational resources, as fashion and trends change, students become more concerned with how they look and how they are perceived than they do with their academic success and achievement. The fashion of low rise jeans, bagging jeans, large trench coats, low cut shirts, and many others contribute to behavior problems and safety issues in the classrooms and in the hallways of schools today.</t>
   </si>
   <si>
-    <t>415,0.0,19.03,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.15,0.2,0.08,0.13</t>
+    <t>33.5,6.19,1.17,0.63,1.86,0.0,19.03,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.28,0.13,0.15,0.01,0.01,0.06,0.06,0.14,0.13,0.13,3.97</t>
   </si>
   <si>
     <t>arg580102</t>
@@ -55,7 +55,7 @@
     <t>This is very. Bad as the uniforms are also cost effective.</t>
   </si>
   <si>
-    <t>58,0.5,8.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>5.5,5.27,0.19,0.63,0.31,0.5,8.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.27,0.09,0.09,0.0,0.0,0.0,0.0,0.0,13.25</t>
   </si>
   <si>
     <t>arg207727</t>
@@ -64,7 +64,7 @@
     <t>Frankly, if kids didn't dress like whores and drug dealers all the time then it wouldn't be a problem, but since a lot of them do school districts have to turn to such a thing.  The argument of individuality...who cares? That's a load of bull. Is school the only place these kids go? What is stopping them from going home and putting on different clothes after school? And it isn't the schools job to make sure that every kid gets to "express their opinion." School is meant to be a learning environment, not a fashion show or a night club.</t>
   </si>
   <si>
-    <t>540,0.14,12.07,0.0,0.01,1.43,0.0,0.0,0.0,0.45,0.35,0.4,0.0,0.0</t>
+    <t>14.29,5.4,1.75,2.2,0.79,0.14,12.07,0.0,0.01,1.43,0,0,0.0,0.0,0.0,0.29,0.05,0.19,0.02,0.02,0.05,0.01,0.05,0.0,0.0,4.82</t>
   </si>
   <si>
     <t>arg201071</t>
@@ -73,7 +73,7 @@
     <t>I think school uniform is a good idea. Because there is the gap between the rich and poor, school uniform is efficient in many ways. If they wore to plain clothes every day, they concerned about clothes by brand and quantity of clothes. Teenager is sensible so the poor students can feel inferior. Although school uniform is very expensive , it is cheap better than plain clothes. Also they feel sense of kinship and sense of belonging. In my case, school uniform is convenient. I don't have to worry about my clothes during my student days.</t>
   </si>
   <si>
-    <t>541,0.38,14.2,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.08,0.13</t>
+    <t>12.0,5.64,1.68,2.52,0.67,0.38,14.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.18,0.02,0.02,0.09,0.01,0.0,0.13,0.13,8.93</t>
   </si>
   <si>
     <t>arg580100</t>
@@ -82,7 +82,7 @@
     <t>it is good to follow to proper school code and the right to express emotions is right but not necessary as we have come school for learning.</t>
   </si>
   <si>
-    <t>140,1.0,13.37,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>27.0,5.19,0.47,0.31,1.5,1.0,13.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.26,0.04,0.04,0.07,0.0,0.0,0.0,0.0,11.13</t>
   </si>
   <si>
     <t>arg251981</t>
@@ -91,7 +91,7 @@
     <t>They prepare people for the clothes they may have to wear later on in life. They ensure that no unsuitable clothing is worn.</t>
   </si>
   <si>
-    <t>124,0.0,12.82,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.04,0.13</t>
+    <t>11.5,5.39,0.4,0.63,0.64,0.0,12.82,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.22,0.09,0.22,0.04,0.04,0.13,0.04,0.05,0.13,0.13,8.71</t>
   </si>
   <si>
     <t>arg205860</t>
@@ -100,7 +100,7 @@
     <t>Who in their right mind wants to get rid of Catholic school girl outfits?</t>
   </si>
   <si>
-    <t>73,0.0,12.33,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>14.0,5.21,0.24,0.31,0.78,0.0,12.33,0.0,0.0,1.0,0,0,0.0,0.0,33.33,0.29,0.21,0.14,0.0,0.0,0.07,0.0,0.0,0.0,0.0,11.17</t>
   </si>
   <si>
     <t>arg198325</t>
@@ -109,7 +109,7 @@
     <t>Student victimization is likely to be lowered and fights and gang activity should be decreased, as there is less competition in regard to wearing the most fashionable clothing.</t>
   </si>
   <si>
-    <t>176,0.0,19.68,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.2,0.0,0.0</t>
+    <t>28.0,6.29,0.49,0.31,1.55,0.0,19.68,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.11,0.25,0.04,0.04,0.0,0.11,0.09,0.0,0.0,6.58</t>
   </si>
   <si>
     <t>arg299409</t>
@@ -118,7 +118,7 @@
     <t>Means you don't have to worry about what you hve to wear!  Less awkward when people say wear school uniform and you wear mufti...</t>
   </si>
   <si>
-    <t>129,0.0,11.38,0.0,0.04,2.0,0.0,0.0,0.0,0.1,0.2,0.2,0.04,0.0</t>
+    <t>12.0,5.38,0.42,0.63,0.67,0.0,11.38,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.21,0.08,0.29,0.04,0.04,0.13,0.0,0.0,0.0,0.0,16.78</t>
   </si>
   <si>
     <t>arg198376</t>
@@ -127,7 +127,7 @@
     <t>That's really good idea. As i remember every morning i though what was better to wear? It was really problem, i spent quiet a lot of time. I asked my parents to buy new clothes for me, it was happened not rare. I know that not everyone thought as me, but it much better if the school has own uniform and everybody has to follow it. First it looks very good, smart. Secondly there is no envy that somebody have really nice skirt or jeans. Every pupil is the same and it would be easy to study, to not think about another things!!</t>
   </si>
   <si>
-    <t>528,0.33,10.84,0.0,0.0,1.0,0.0,0.0,0.0,0.4,0.6,0.55,0.04,0.0</t>
+    <t>11.44,5.13,1.8,2.83,0.64,0.33,10.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.22,0.1,0.1,0.08,0.0,0.0,0.0,0.0,8.83</t>
   </si>
   <si>
     <t>arg203922</t>
@@ -136,7 +136,7 @@
     <t>yes, i believe it's nice to have a school uniform. Each school 's uniform signifies its goal for instant i wore white shirt and blue skirt in my school days, white color is an indication of peace and blue of fidelity in relationships moreover identical uniform also removes the wall of status. it also depicts that whether a child comes from high or low class they all are treated equally under one roof .</t>
   </si>
   <si>
-    <t>405,1.0,15.14,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.16,0.0</t>
+    <t>24.67,5.47,1.29,0.94,1.37,1.0,15.14,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.23,0.12,0.14,0.05,0.05,0.05,0.03,0.09,0.0,0.0,6.0</t>
   </si>
   <si>
     <t>arg236393</t>
@@ -145,7 +145,7 @@
     <t>It is a good thing because this shows that the school and everyone else accepts each other no matter where they come from, who they are or what religion they are.</t>
   </si>
   <si>
-    <t>162,1.0,13.59,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>31.0,5.23,0.54,0.31,1.72,1.0,13.59,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.19,0.03,0.03,0.13,0.0,0.0,0.0,0.0,13.14</t>
   </si>
   <si>
     <t>arg205569</t>
@@ -154,7 +154,7 @@
     <t>School uniform is a great idea, just because it makes impossible to hold the race for the fashion among pupils. let it be, one pupil is richer than another. rich can begin to show off in front of those who are poorer. this action will create a negative atmosphere in the school and can start row between both pupils. As a rule, As a rule, it often occurs between the girls, although it is not rare between the boys. that's why school uniform liquidates all conflicts.</t>
   </si>
   <si>
-    <t>467,0.33,13.18,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.04,0.0</t>
+    <t>14.33,5.43,1.5,1.89,0.8,0.33,13.18,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.08,0.16,0.03,0.03,0.05,0.03,0.09,0.0,0.0,6.03</t>
   </si>
   <si>
     <t>arg208793</t>
@@ -163,7 +163,7 @@
     <t>I think that school uniform is a good idea. First it's make students look nice and tidy. Second we can know that who is study in which school or who is in a same school with us and finally it's convenient because we don't have to spend to much of time to choose clothes to school</t>
   </si>
   <si>
-    <t>279,0.67,10.96,0.0,0.0,0.67,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+    <t>18.67,4.98,0.98,0.94,1.04,0.67,10.96,0.0,0.0,0.67,0,0,0.0,0.0,0.0,0.23,0.07,0.21,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>arg561672</t>
@@ -172,7 +172,7 @@
     <t>1. It makes everyone equal - if children can wear what they want some children will teased and feel less equal to their peers around them vs. uniforms  2. Okay Look school is for learning not how you look and dress but maybe in some levels it matters and most people that go to schools that don't have uniforms take like about 1 hr just to find their pants or shirt I mean really?? When you have a uniform it takes less than 10 min just to take it out and put it on and.</t>
   </si>
   <si>
-    <t>470,0.25,13.0,0.0,0.01,1.5,0.0,0.03,0.0,0.2,0.45,0.4,0.04,0.0</t>
+    <t>23.75,4.95,1.66,1.26,1.32,0.25,13.0,0.0,0.01,1.5,5,0,0.0,0.03,0.0,0.14,0.06,0.19,0.05,0.05,0.13,0.0,0.0,0.0,0.0,9.29</t>
   </si>
   <si>
     <t>arg198890</t>
@@ -181,7 +181,7 @@
     <t>year,i support this view. when i was studying in the school,for me wasn't a problem what to wear . In the university....i spend too much time in choosing clothes. firstly, it is wasting a time. secondly, when all students wear one uniform, there wouldn't be any discrimination, dividing into social status groups. A uniform shows students equality.</t>
   </si>
   <si>
-    <t>348,0.33,14.19,0.0,0.05,1.67,0.0,0.0,0.0,0.3,0.45,0.5,0.0,0.0</t>
+    <t>9.5,6.11,1.0,1.89,0.53,0.33,14.19,0.0,0.05,1.67,0,0,0.0,0.0,0.0,0.26,0.09,0.23,0.04,0.04,0.04,0.02,0.05,0.0,0.0,7.3</t>
   </si>
   <si>
     <t>arg199548</t>
@@ -190,7 +190,7 @@
     <t>i think school uniform is really good idea!Yes i agree that a lot of pupils don't like it, but however it have a lot of benefits. As previous people said children at first don't have to think about what to wear!because it is very big problem for teenagers.</t>
   </si>
   <si>
-    <t>256,1.0,12.06,0.0,0.04,2.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>24.0,5.33,0.84,0.63,1.33,1.0,12.06,0.0,0.04,2.0,0,0,0.0,0.0,0.0,0.19,0.08,0.21,0.06,0.06,0.04,0.0,0.0,0.0,0.0,10.73</t>
   </si>
   <si>
     <t>arg251866</t>
@@ -199,7 +199,7 @@
     <t>Uniforms allow an equal and fair social status only based on personality and not looks. I do half to admit wearing what you want is fun and creative but its only fun if everyone can do it and for some children thats not the case and they cant afford to live up to their peers standards so uniforms would make social life much easier and it would give a more mature look to the school.</t>
   </si>
   <si>
-    <t>384,0.5,13.36,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>37.5,5.12,1.31,0.63,2.08,0.5,13.36,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.2,0.15,0.17,0.09,0.09,0.09,0.01,0.05,0.0,0.0,7.74</t>
   </si>
   <si>
     <t>arg198256</t>
@@ -208,7 +208,7 @@
     <t>I believe that the school uniform is a good idea because school uniform improve student attendance and student doesn't spend a lot of time to choosing and buying clothes for school, espeacilly girls. That is why they can use more time to study.</t>
   </si>
   <si>
-    <t>244,0.5,15.37,0.0,0.02,1.0,0.0,0.0,0.0,0.35,0.45,0.4,0.0,0.0</t>
+    <t>21.5,5.67,0.75,0.63,1.19,0.5,15.37,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.3,0.07,0.19,0.02,0.02,0.05,0.02,0.05,0.0,0.0,13.31</t>
   </si>
   <si>
     <t>arg198802</t>
@@ -217,7 +217,7 @@
     <t>it is good idea... children should be equal, and do not compare clothes of each other... if they see something new from their classmates, they want to buy it, even it is not necessary...</t>
   </si>
   <si>
-    <t>186,0.0,13.42,0.0,0.0,9.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>34.0,5.47,0.59,0.31,1.89,0.0,13.42,0.0,0.0,9.0,0,0,0.0,0.0,0.0,0.12,0.15,0.24,0.12,0.12,0.15,0.03,0.0,0.0,0.0,8.13</t>
   </si>
   <si>
     <t>arg208794</t>
@@ -226,7 +226,7 @@
     <t>I think that school uniform is a good idea. First it's make students look nice and tidy. Second we can know that who is study in which school or who is in a same school with us and finally it's convenient because we don't have to spend to much of time to choose clothes to school.</t>
   </si>
   <si>
-    <t>280,0.67,10.96,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.45,0.4,0.0,0.0</t>
+    <t>18.67,5.0,0.98,0.94,1.04,0.67,10.96,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.07,0.23,0.04,0.04,0.07,0.02,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>arg234411</t>
@@ -235,7 +235,7 @@
     <t>In a school all the students may not belong to the same financial status . Some may be rich , some may not be that rich . So uniform provides equal status to all the students so that there is no gap among them . If there is no uniform , then the rich students will wear new dresses everyday which the other students cannot afford and may lead to resentment among them .  Some insensitive children may also mock other students wear old cloths .  So I beleive that uniform is essential especially in developing countries .</t>
   </si>
   <si>
-    <t>520,0.33,14.75,0.0,0.01,1.0,0.0,0.0,0.0,0.2,0.35,0.45,0.12,0.25</t>
+    <t>16.33,5.31,1.71,1.89,0.91,0.33,14.75,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.13,0.13,0.16,0.07,0.07,0.03,0.03,0.09,0.25,0.25,8.7</t>
   </si>
   <si>
     <t>arg252294</t>
@@ -244,7 +244,7 @@
     <t>Good idea for separate student from other people for at least increase garment job. Why we use soldier uniform? For separate from civil. Why terrorist not use soldier uniform? For harmonious with civil and easy to attack enemy.</t>
   </si>
   <si>
-    <t>227,0.0,14.66,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.04,0.0</t>
+    <t>7.6,5.97,0.66,1.57,0.42,0.0,14.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.34,0.08,0.05,0.05,0.03,0.03,0.0,0.0,0.0,7.44</t>
   </si>
   <si>
     <t>arg212151</t>
@@ -253,7 +253,7 @@
     <t>If you want your kids to wear uniforms, go to a school that allows that. But don't go crying to me that your kids are underachieving, easily-distracted, derelicts that can't focus their attention for 5 minutes in class.  Maybe I'm exaggerating.  But my message is clear. Uniforms are here to prevent problems that not wearing uniforms would cause.</t>
   </si>
   <si>
-    <t>347,0.4,14.0,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.04,0.13</t>
+    <t>11.6,5.98,1.01,1.57,0.64,0.4,14.0,0.0,0.02,1.0,1,0,0.0,0.0,0.0,0.19,0.07,0.24,0.03,0.03,0.1,0.03,0.09,0.13,0.13,9.47</t>
   </si>
   <si>
     <t>arg234631</t>
@@ -262,7 +262,7 @@
     <t>i think it's a good idea. so the student don't have to worry about what would they wear. they'll become more concentrate with their study so it's more efficient. if other says they can't express them self, oh please, there's so many things you can do to express yourself. and i think, uniform indirectly give thought how to dress correctly. if we let them dress theirself, they could wear Inappropriate clothes such as hot pants, rebel jeans or sexy clothes. that's not good for their mind.</t>
   </si>
   <si>
-    <t>490,0.0,13.31,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.45,0.45,0.0,0.0</t>
+    <t>12.29,5.7,1.5,2.2,0.68,0.0,13.31,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.14,0.15,0.2,0.08,0.08,0.1,0.03,0.09,0.0,0.0,7.68</t>
   </si>
   <si>
     <t>arg200033</t>
@@ -271,7 +271,7 @@
     <t>I believe that the wearing of the school uniform should be encouraged because it reminds each child that they are equal (at least in school). It also shows unity and children feel included and it helps them to work as a team.</t>
   </si>
   <si>
-    <t>225,1.0,13.73,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.35,0.35,0.0,0.0</t>
+    <t>21.0,5.36,0.73,0.63,1.17,1.0,13.73,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.05,0.24,0.02,0.02,0.14,0.02,0.0,0.0,0.0,11.67</t>
   </si>
   <si>
     <t>arg200133</t>
@@ -280,7 +280,7 @@
     <t>school uniform does no harm to students life emotions now as for the point of expressing oneself imagine one bully wearing shirt,tie,pant all neatly ironed and well polished shoes wont he look good.remember dressing sense also is a part of ur interveiw.</t>
   </si>
   <si>
-    <t>253,1.0,16.06,0.0,0.07,2.0,0.0,0.0,0.0,0.1,0.25,0.25,0.12,0.0</t>
+    <t>42.0,6.02,0.73,0.31,2.33,1.0,16.06,0.0,0.07,2.0,0,0,0.0,0.0,0.0,0.21,0.07,0.19,0.12,0.12,0.05,0.02,0.0,0.0,0.0,8.13</t>
   </si>
   <si>
     <t>arg198575</t>
@@ -289,7 +289,7 @@
     <t>i believe they are good! in this way all the girls out there would not tease each other about fashion issues and plus it makes all students look and feel equal which increases their attention on school work since they dont have to think if they are wearing the most expensive cloth is school or if they look the coolest and the prettiest and so..:D</t>
   </si>
   <si>
-    <t>348,0.0,14.23,0.0,0.02,1.5,0.0,0.0,0.0,0.15,0.35,0.4,0.12,0.13</t>
+    <t>32.5,5.35,1.14,0.63,1.8,0.0,14.23,0.0,0.02,1.5,0,0,0.0,0.0,0.0,0.17,0.05,0.23,0.05,0.05,0.09,0.0,0.0,0.13,0.13,8.95</t>
   </si>
   <si>
     <t>arg198711</t>
@@ -298,7 +298,7 @@
     <t>I actually believe that uniforms are good and in schools should be school uniforms. In this situation you don't have to constantly worry about what you're gonna wear every morning. And for it time you will be do any important thing which help to you in lessons. Yes, it might be a little boring putting on the same set of clothes but it's less costly this way, and you do not have to go on shopping trips so regularly.</t>
   </si>
   <si>
-    <t>418,0.25,12.49,0.0,0.01,1.0,0.0,0.0,0.0,0.3,0.35,0.35,0.0,0.0</t>
+    <t>19.75,5.29,1.38,1.26,1.1,0.25,12.49,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.23,0.05,0.05,0.09,0.01,0.05,0.0,0.0,9.86</t>
   </si>
   <si>
     <t>arg236207</t>
@@ -307,7 +307,7 @@
     <t>With uniforms there will be less of oh you dont wear this and you wear that. Then everyone is wearing the same thing and 1. it looks nicer 2. You dont have to spend forever trying to figure out what you are going to wear and 3. less drama, everyones wearing the same thing.</t>
   </si>
   <si>
-    <t>273,0.0,13.13,0.0,0.06,1.67,0.0,0.06,0.0,0.1,0.2,0.15,0.04,0.13</t>
+    <t>18.0,5.06,0.94,0.94,1.0,0.0,13.13,0.0,0.06,1.67,3,0,0.0,0.06,0.0,0.11,0.11,0.3,0.04,0.04,0.09,0.0,0.0,0.13,0.13,10.67</t>
   </si>
   <si>
     <t>arg660921</t>
@@ -316,7 +316,7 @@
     <t>yas,of course . School uniform is important  1.school uniform is a logos for our school  2.to remind us that we are part of the school  3.and if we use the uniform basically student used to think what are they gonna do to, is it positive or negative  4.in the morning we should use our uniform and if were not use our uniform the teacher give us a punishment and from that we can learn to be a discipline student  5.if we go out from the school than the teacher will see we used the school uniform so people will know that we from that school  thankyou.</t>
   </si>
   <si>
-    <t>553,0.0,13.25,0.0,0.08,3.5,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>53.0,5.22,1.85,0.63,2.94,0.0,13.25,0.0,0.08,3.5,5,0,0.0,0.0,0.0,0.18,0.05,0.19,0.03,0.03,0.13,0.02,0.05,0.0,0.0,8.05</t>
   </si>
   <si>
     <t>arg542561</t>
@@ -325,7 +325,7 @@
     <t>THE SCHOOL UNIFORM IS A VERY GOOOOOOOOOD IDEA , WHY ??  becouse the school uniform makes pupils concentrated on their education than on their clothes and I believe that school uniform instills discipline among pupils it makes pupils with diferent material statuses more equal :)</t>
   </si>
   <si>
-    <t>278,0.0,20.45,0.0,0.1,1.0,0.0,0.22,0.0,0.2,0.35,0.35,0.0,0.0</t>
+    <t>22.5,6.18,0.79,0.63,1.25,0.0,20.45,0.0,0.1,1.0,0,0,0.0,0.22,0.0,0.27,0.09,0.16,0.04,0.04,0.09,0.04,0.0,0.0,0.0,10.31</t>
   </si>
   <si>
     <t>arg203291</t>
@@ -334,7 +334,7 @@
     <t>I think that such a policy is a good idea. Uniforms make students equal on an economic level. This can be prevent envy and jealousy.</t>
   </si>
   <si>
-    <t>132,0.0,10.99,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.04,0.0</t>
+    <t>8.33,5.28,0.44,0.94,0.46,0.0,10.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.16,0.16,0.0,0.0,0.04,0.0,0.0,0.0,0.0,9.82</t>
   </si>
 </sst>
 </file>
